--- a/Students/30421/Lab30421.xlsx
+++ b/Students/30421/Lab30421.xlsx
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1080,7 @@
     <col min="10" max="10" width="9.7109375" customWidth="1"/>
     <col min="11" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="16" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" customWidth="1"/>
     <col min="19" max="19" width="39.5703125" customWidth="1"/>
     <col min="20" max="20" width="26.28515625" customWidth="1"/>

--- a/Students/30421/Lab30421.xlsx
+++ b/Students/30421/Lab30421.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="48">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -1069,7 +1069,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+      <selection activeCell="P3" sqref="P3:P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,7 +1224,9 @@
       <c r="O3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Q3">
         <v>0.2</v>
       </c>
@@ -1288,7 +1290,9 @@
       <c r="O4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="4"/>
+      <c r="P4" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="Q4">
         <v>0.15</v>
       </c>
@@ -1352,7 +1356,9 @@
       <c r="O5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P5" s="3"/>
+      <c r="P5" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Q5">
         <v>0.5</v>
       </c>
@@ -1416,7 +1422,9 @@
       <c r="O6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P6" s="4"/>
+      <c r="P6" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="Q6">
         <v>0.3</v>
       </c>
@@ -1480,7 +1488,9 @@
       <c r="O7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="P7" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Q7">
         <v>0.25</v>
       </c>
@@ -1544,7 +1554,9 @@
       <c r="O8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P8" s="4"/>
+      <c r="P8" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="Q8">
         <v>0.1</v>
       </c>
@@ -1608,7 +1620,9 @@
       <c r="O9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="3"/>
+      <c r="P9" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Q9">
         <v>0.15</v>
       </c>
@@ -1672,7 +1686,9 @@
       <c r="O10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="4"/>
+      <c r="P10" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="Q10">
         <v>0.13</v>
       </c>
@@ -1736,7 +1752,9 @@
       <c r="O11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Q11">
         <v>0.08</v>
       </c>
@@ -1800,7 +1818,9 @@
       <c r="O12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P12" s="4"/>
+      <c r="P12" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="Q12">
         <v>0.08</v>
       </c>
@@ -1864,7 +1884,9 @@
       <c r="O13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Q13">
         <v>0.18</v>
       </c>
@@ -1928,7 +1950,9 @@
       <c r="O14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P14" s="4"/>
+      <c r="P14" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="Q14">
         <v>0.18</v>
       </c>
@@ -1992,7 +2016,9 @@
       <c r="O15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="3"/>
+      <c r="P15" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Q15">
         <v>0.19</v>
       </c>
@@ -2056,7 +2082,9 @@
       <c r="O16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P16" s="4"/>
+      <c r="P16" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="Q16">
         <v>0.1</v>
       </c>
@@ -2120,7 +2148,9 @@
       <c r="O17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P17" s="3"/>
+      <c r="P17" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Q17">
         <v>0.5</v>
       </c>
@@ -2182,7 +2212,9 @@
       <c r="O18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P18" s="4"/>
+      <c r="P18" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="R18" s="4">
         <v>1</v>
       </c>
@@ -2243,7 +2275,9 @@
       <c r="O19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Q19">
         <v>0.45</v>
       </c>
@@ -2305,7 +2339,9 @@
       <c r="O20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P20" s="4"/>
+      <c r="P20" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="R20" s="4">
         <v>9.5</v>
       </c>
@@ -2366,7 +2402,9 @@
       <c r="O21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Q21">
         <v>1.4</v>
       </c>
@@ -2430,7 +2468,9 @@
       <c r="O22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P22" s="4"/>
+      <c r="P22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="Q22">
         <v>0.12</v>
       </c>
@@ -2488,7 +2528,9 @@
       <c r="O23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="R23" s="3">
         <v>1</v>
       </c>
@@ -2549,7 +2591,9 @@
       <c r="O24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P24" s="4"/>
+      <c r="P24" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="Q24">
         <v>0.15</v>
       </c>
@@ -2613,7 +2657,9 @@
       <c r="O25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="P25" s="3"/>
+      <c r="P25" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="Q25">
         <v>1.5</v>
       </c>

--- a/Students/30421/Lab30421.xlsx
+++ b/Students/30421/Lab30421.xlsx
@@ -702,7 +702,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -712,14 +712,21 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1069,7 +1076,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P25"/>
+      <selection activeCell="U25" sqref="Q1:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,19 +1143,19 @@
       <c r="P1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="8" t="s">
+      <c r="Q1" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="8" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1174,10 +1181,11 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
     </row>
     <row r="3" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1227,20 +1235,20 @@
       <c r="P3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="9">
         <v>0.2</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="6">
         <v>1</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="6">
         <v>4.3</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="6">
         <f>IF((R3+S3)/2 + Q3 &gt; 10, 10, (R3+S3)/2 + Q3)</f>
         <v>2.85</v>
       </c>
-      <c r="U3" s="7" t="str">
+      <c r="U3" s="6" t="str">
         <f>IF(AND(R3&gt;5, S3&gt;5), "pass", "fail")</f>
         <v>fail</v>
       </c>
@@ -1293,20 +1301,20 @@
       <c r="P4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="9">
         <v>0.15</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="5">
         <v>6.5</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="5">
         <v>1</v>
       </c>
-      <c r="T4" s="6">
+      <c r="T4" s="5">
         <f>IF((R4+S4)/2 + Q4 &gt; 10, 10, (R4+S4)/2 + Q4)</f>
         <v>3.9</v>
       </c>
-      <c r="U4" s="6" t="str">
+      <c r="U4" s="5" t="str">
         <f t="shared" ref="U4:U25" si="1">IF(AND(R4&gt;5, S4&gt;5), "pass", "fail")</f>
         <v>fail</v>
       </c>
@@ -1359,20 +1367,20 @@
       <c r="P5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="9">
         <v>0.5</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="6">
         <v>10</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="6">
         <f t="shared" ref="T5:T25" si="2">IF((R5+S5)/2 + Q5 &gt; 10, 10, (R5+S5)/2 + Q5)</f>
         <v>9.6</v>
       </c>
-      <c r="U5" s="7" t="str">
+      <c r="U5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>pass</v>
       </c>
@@ -1425,20 +1433,20 @@
       <c r="P6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="9">
         <v>0.3</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="5">
         <v>1</v>
       </c>
-      <c r="S6" s="4">
+      <c r="S6" s="5">
         <v>1</v>
       </c>
-      <c r="T6" s="4">
+      <c r="T6" s="5">
         <f t="shared" si="2"/>
         <v>1.3</v>
       </c>
-      <c r="U6" s="6" t="str">
+      <c r="U6" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -1491,20 +1499,20 @@
       <c r="P7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="9">
         <v>0.25</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="6">
         <v>9.5</v>
       </c>
-      <c r="S7" s="7">
+      <c r="S7" s="6">
         <v>7.6</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="6">
         <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="U7" s="7" t="str">
+      <c r="U7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>pass</v>
       </c>
@@ -1557,20 +1565,20 @@
       <c r="P8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="9">
         <v>0.1</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="5">
         <v>1</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8" s="5">
         <v>1</v>
       </c>
-      <c r="T8" s="6">
+      <c r="T8" s="5">
         <f t="shared" si="2"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="U8" s="6" t="str">
+      <c r="U8" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -1623,20 +1631,20 @@
       <c r="P9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="9">
         <v>0.15</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="6">
         <v>1</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="6">
         <v>1</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="6">
         <f t="shared" si="2"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="U9" s="7" t="str">
+      <c r="U9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -1689,20 +1697,20 @@
       <c r="P10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="9">
         <v>0.13</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="5">
         <v>6</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10" s="5">
         <v>2.8</v>
       </c>
-      <c r="T10" s="6">
+      <c r="T10" s="5">
         <f t="shared" si="2"/>
         <v>4.53</v>
       </c>
-      <c r="U10" s="6" t="str">
+      <c r="U10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -1755,20 +1763,20 @@
       <c r="P11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="9">
         <v>0.08</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="6">
         <v>4</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="6">
         <v>3</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="6">
         <f t="shared" si="2"/>
         <v>3.58</v>
       </c>
-      <c r="U11" s="7" t="str">
+      <c r="U11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -1821,20 +1829,20 @@
       <c r="P12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="9">
         <v>0.08</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="5">
         <v>8.5</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="T12" s="6">
+      <c r="T12" s="5">
         <f t="shared" si="2"/>
         <v>6.38</v>
       </c>
-      <c r="U12" s="6" t="str">
+      <c r="U12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -1887,20 +1895,20 @@
       <c r="P13" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="9">
         <v>0.18</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="6">
         <v>10</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="6">
         <v>4.3</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="6">
         <f t="shared" si="2"/>
         <v>7.33</v>
       </c>
-      <c r="U13" s="7" t="str">
+      <c r="U13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -1953,20 +1961,20 @@
       <c r="P14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="9">
         <v>0.18</v>
       </c>
-      <c r="R14" s="4">
+      <c r="R14" s="5">
         <v>1</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14" s="5">
         <v>4.2</v>
       </c>
-      <c r="T14" s="6">
+      <c r="T14" s="5">
         <f t="shared" si="2"/>
         <v>2.7800000000000002</v>
       </c>
-      <c r="U14" s="6" t="str">
+      <c r="U14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -2019,20 +2027,20 @@
       <c r="P15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="9">
         <v>0.19</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="6">
         <v>9.5</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="6">
         <v>3</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="6">
         <f t="shared" si="2"/>
         <v>6.44</v>
       </c>
-      <c r="U15" s="7" t="str">
+      <c r="U15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -2085,20 +2093,20 @@
       <c r="P16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="9">
         <v>0.1</v>
       </c>
-      <c r="R16" s="4">
+      <c r="R16" s="5">
         <v>10</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <v>5.8</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="U16" s="6" t="str">
+      <c r="U16" s="5" t="str">
         <f t="shared" si="1"/>
         <v>pass</v>
       </c>
@@ -2151,20 +2159,20 @@
       <c r="P17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="9">
         <v>0.5</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="6">
         <v>9</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>7.4</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="6">
         <f t="shared" si="2"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="U17" s="7" t="str">
+      <c r="U17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>pass</v>
       </c>
@@ -2215,17 +2223,18 @@
       <c r="P18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R18" s="4">
+      <c r="Q18" s="9"/>
+      <c r="R18" s="5">
         <v>1</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18" s="5">
         <v>1</v>
       </c>
-      <c r="T18" s="6">
+      <c r="T18" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U18" s="6" t="str">
+      <c r="U18" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -2278,20 +2287,20 @@
       <c r="P19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="9">
         <v>0.45</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="6">
         <v>10</v>
       </c>
-      <c r="S19" s="7">
+      <c r="S19" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="6">
         <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
-      <c r="U19" s="7" t="str">
+      <c r="U19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>pass</v>
       </c>
@@ -2342,17 +2351,18 @@
       <c r="P20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="R20" s="4">
+      <c r="Q20" s="9"/>
+      <c r="R20" s="5">
         <v>9.5</v>
       </c>
-      <c r="S20" s="6">
+      <c r="S20" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="T20" s="6">
+      <c r="T20" s="5">
         <f t="shared" si="2"/>
         <v>8.85</v>
       </c>
-      <c r="U20" s="6" t="str">
+      <c r="U20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>pass</v>
       </c>
@@ -2405,20 +2415,20 @@
       <c r="P21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="9">
         <v>1.4</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="6">
         <v>10</v>
       </c>
-      <c r="S21" s="7">
+      <c r="S21" s="6">
         <v>8.4</v>
       </c>
-      <c r="T21" s="7">
+      <c r="T21" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="U21" s="7" t="str">
+      <c r="U21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>pass</v>
       </c>
@@ -2471,20 +2481,20 @@
       <c r="P22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" s="9">
         <v>0.12</v>
       </c>
-      <c r="R22" s="4">
+      <c r="R22" s="5">
         <v>4</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22" s="5">
         <v>1</v>
       </c>
-      <c r="T22" s="6">
+      <c r="T22" s="5">
         <f t="shared" si="2"/>
         <v>2.62</v>
       </c>
-      <c r="U22" s="6" t="str">
+      <c r="U22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -2531,17 +2541,18 @@
       <c r="P23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="R23" s="3">
+      <c r="Q23" s="9"/>
+      <c r="R23" s="6">
         <v>1</v>
       </c>
-      <c r="S23" s="7">
+      <c r="S23" s="6">
         <v>1</v>
       </c>
-      <c r="T23" s="7">
+      <c r="T23" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U23" s="7" t="str">
+      <c r="U23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -2594,20 +2605,20 @@
       <c r="P24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="9">
         <v>0.15</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24" s="5">
         <v>1</v>
       </c>
-      <c r="S24" s="6">
+      <c r="S24" s="5">
         <v>4.5</v>
       </c>
-      <c r="T24" s="6">
+      <c r="T24" s="5">
         <f t="shared" si="2"/>
         <v>2.9</v>
       </c>
-      <c r="U24" s="6" t="str">
+      <c r="U24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>fail</v>
       </c>
@@ -2660,20 +2671,20 @@
       <c r="P25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" s="9">
         <v>1.5</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="6">
         <v>10</v>
       </c>
-      <c r="S25" s="7">
+      <c r="S25" s="6">
         <v>9.6</v>
       </c>
-      <c r="T25" s="7">
+      <c r="T25" s="6">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="U25" s="7" t="str">
+      <c r="U25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>pass</v>
       </c>

--- a/Students/30421/Lab30421.xlsx
+++ b/Students/30421/Lab30421.xlsx
@@ -1076,7 +1076,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U25" sqref="Q1:U25"/>
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,11 +1242,11 @@
         <v>1</v>
       </c>
       <c r="S3" s="6">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="T3" s="6">
         <f>IF((R3+S3)/2 + Q3 &gt; 10, 10, (R3+S3)/2 + Q3)</f>
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="U3" s="6" t="str">
         <f>IF(AND(R3&gt;5, S3&gt;5), "pass", "fail")</f>

--- a/Students/30421/Lab30421.xlsx
+++ b/Students/30421/Lab30421.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="50">
   <si>
     <t>Nume si prenume</t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>Final mark</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
@@ -1076,7 +1082,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="Q2" sqref="Q2:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,18 +1245,16 @@
         <v>0.2</v>
       </c>
       <c r="R3" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S3" s="6">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="T3" s="6">
-        <f>IF((R3+S3)/2 + Q3 &gt; 10, 10, (R3+S3)/2 + Q3)</f>
-        <v>3.45</v>
-      </c>
-      <c r="U3" s="6" t="str">
-        <f>IF(AND(R3&gt;5, S3&gt;5), "pass", "fail")</f>
-        <v>fail</v>
+        <v>7.35</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1308,15 +1312,13 @@
         <v>6.5</v>
       </c>
       <c r="S4" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4" s="5">
-        <f>IF((R4+S4)/2 + Q4 &gt; 10, 10, (R4+S4)/2 + Q4)</f>
-        <v>3.9</v>
-      </c>
-      <c r="U4" s="5" t="str">
-        <f t="shared" ref="U4:U25" si="1">IF(AND(R4&gt;5, S4&gt;5), "pass", "fail")</f>
-        <v>fail</v>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1377,12 +1379,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="T5" s="6">
-        <f t="shared" ref="T5:T25" si="2">IF((R5+S5)/2 + Q5 &gt; 10, 10, (R5+S5)/2 + Q5)</f>
         <v>9.6</v>
       </c>
-      <c r="U5" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
+      <c r="U5" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,18 +1437,16 @@
         <v>0.3</v>
       </c>
       <c r="R6" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S6" s="5">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="T6" s="5">
-        <f t="shared" si="2"/>
-        <v>1.3</v>
-      </c>
-      <c r="U6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>5.4</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1509,12 +1507,10 @@
         <v>7.6</v>
       </c>
       <c r="T7" s="6">
-        <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
-      <c r="U7" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
+      <c r="U7" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1569,18 +1565,16 @@
         <v>0.1</v>
       </c>
       <c r="R8" s="5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S8" s="5">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="T8" s="5">
-        <f t="shared" si="2"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>3.5</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1635,18 +1629,16 @@
         <v>0.15</v>
       </c>
       <c r="R9" s="6">
-        <v>1</v>
+        <v>8.75</v>
       </c>
       <c r="S9" s="6">
-        <v>1</v>
+        <v>8.9</v>
       </c>
       <c r="T9" s="6">
-        <f t="shared" si="2"/>
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="U9" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>8.9749999999999996</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1704,15 +1696,13 @@
         <v>6</v>
       </c>
       <c r="S10" s="5">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="T10" s="5">
-        <f t="shared" si="2"/>
-        <v>4.53</v>
-      </c>
-      <c r="U10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>4.68</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,18 +1757,16 @@
         <v>0.08</v>
       </c>
       <c r="R11" s="6">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="S11" s="6">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T11" s="6">
-        <f t="shared" si="2"/>
-        <v>3.58</v>
-      </c>
-      <c r="U11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>4.88</v>
+      </c>
+      <c r="U11" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1839,12 +1827,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="2"/>
         <v>6.38</v>
       </c>
-      <c r="U12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+      <c r="U12" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1902,15 +1888,13 @@
         <v>10</v>
       </c>
       <c r="S13" s="6">
-        <v>4.3</v>
+        <v>7.1</v>
       </c>
       <c r="T13" s="6">
-        <f t="shared" si="2"/>
-        <v>7.33</v>
-      </c>
-      <c r="U13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>8.73</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1965,18 +1949,16 @@
         <v>0.18</v>
       </c>
       <c r="R14" s="5">
-        <v>1</v>
+        <v>9.25</v>
       </c>
       <c r="S14" s="5">
-        <v>4.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="T14" s="5">
-        <f t="shared" si="2"/>
-        <v>2.7800000000000002</v>
-      </c>
-      <c r="U14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>9.4049999999999994</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2034,15 +2016,13 @@
         <v>9.5</v>
       </c>
       <c r="S15" s="6">
-        <v>3</v>
+        <v>7.9</v>
       </c>
       <c r="T15" s="6">
-        <f t="shared" si="2"/>
-        <v>6.44</v>
-      </c>
-      <c r="U15" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>8.89</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,12 +2083,10 @@
         <v>5.8</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="U16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
+      <c r="U16" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2169,12 +2147,10 @@
         <v>7.4</v>
       </c>
       <c r="T17" s="6">
-        <f t="shared" si="2"/>
         <v>8.6999999999999993</v>
       </c>
-      <c r="U17" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
+      <c r="U17" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2231,12 +2207,10 @@
         <v>1</v>
       </c>
       <c r="T18" s="5">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+      <c r="U18" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2297,12 +2271,10 @@
         <v>8.3000000000000007</v>
       </c>
       <c r="T19" s="6">
-        <f t="shared" si="2"/>
         <v>9.6</v>
       </c>
-      <c r="U19" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
+      <c r="U19" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2359,12 +2331,10 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" si="2"/>
         <v>8.85</v>
       </c>
-      <c r="U20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
+      <c r="U20" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,12 +2395,10 @@
         <v>8.4</v>
       </c>
       <c r="T21" s="6">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="U21" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
+      <c r="U21" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2485,18 +2453,16 @@
         <v>0.12</v>
       </c>
       <c r="R22" s="5">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="S22" s="5">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T22" s="5">
-        <f t="shared" si="2"/>
-        <v>2.62</v>
-      </c>
-      <c r="U22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>6.37</v>
+      </c>
+      <c r="U22" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,12 +2515,10 @@
         <v>1</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U23" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+      <c r="U23" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2609,18 +2573,16 @@
         <v>0.15</v>
       </c>
       <c r="R24" s="5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S24" s="5">
-        <v>4.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="T24" s="5">
-        <f t="shared" si="2"/>
-        <v>2.9</v>
-      </c>
-      <c r="U24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>fail</v>
+        <v>5.7</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -2681,12 +2643,10 @@
         <v>9.6</v>
       </c>
       <c r="T25" s="6">
-        <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="U25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>pass</v>
+      <c r="U25" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Students/30421/Lab30421.xlsx
+++ b/Students/30421/Lab30421.xlsx
@@ -1082,7 +1082,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:U25"/>
+      <selection activeCell="U3" sqref="U3:U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1248,13 +1248,13 @@
         <v>10</v>
       </c>
       <c r="S3" s="6">
-        <v>4.3</v>
+        <v>5.5</v>
       </c>
       <c r="T3" s="6">
         <v>7.35</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
